--- a/SQLPracticalExercise3.xlsx
+++ b/SQLPracticalExercise3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSharpLabsTraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{385C1FC5-5732-419D-835C-BCF38EA6DF73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EAD88C-0730-4B0D-BAFB-DE8316C42B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,6 +452,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A875-4328-9999-5419EDF38D31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1741,10 +1746,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38103</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6522716" cy="4442456"/>
+    <xdr:ext cx="6522716" cy="4678679"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2">
@@ -2103,11 +2108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2536,7 +2541,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
